--- a/PartNumberStructure.xlsx
+++ b/PartNumberStructure.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Dropbox\DTU_ELE_AltiumLibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE8E4BA-471F-4AF0-B4FD-622190272A18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2697FF5A-03EA-41FA-9A5A-166F8425E5AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9340" activeTab="1" xr2:uid="{7CFC6774-A955-4AB0-9A31-AAC2AA0FCF36}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="1" xr2:uid="{7CFC6774-A955-4AB0-9A31-AAC2AA0FCF36}"/>
   </bookViews>
   <sheets>
     <sheet name="Generic Information" sheetId="2" r:id="rId1"/>
     <sheet name="Part Number Structure" sheetId="1" r:id="rId2"/>
     <sheet name="Default Parameters" sheetId="3" r:id="rId3"/>
     <sheet name="Fuse Parameters" sheetId="4" r:id="rId4"/>
+    <sheet name="Inductor Parameters" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Part Number Structure'!$A$2:$B$2</definedName>
@@ -29,7 +30,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Altium Series number</t>
   </si>
@@ -142,6 +142,33 @@
   </si>
   <si>
     <t>Blow Characteristic</t>
+  </si>
+  <si>
+    <t>Saturation Current</t>
+  </si>
+  <si>
+    <t>Inductance</t>
+  </si>
+  <si>
+    <t>Tolerance</t>
+  </si>
+  <si>
+    <t>DCR</t>
+  </si>
+  <si>
+    <t>Max Operating Temperature</t>
+  </si>
+  <si>
+    <t>Min Operating Temperature</t>
+  </si>
+  <si>
+    <t>Wire Material</t>
+  </si>
+  <si>
+    <t>Core Material</t>
+  </si>
+  <si>
+    <t>DEVEL (components)</t>
   </si>
 </sst>
 </file>
@@ -551,10 +578,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B975AB-192F-453F-B2FC-827B771614C1}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -693,6 +720,14 @@
       </c>
       <c r="B18" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -708,13 +743,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B098D51-2D9B-40AC-A630-36904F2B4B0C}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="38.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -764,6 +802,16 @@
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -799,4 +847,49 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ABC9D3-7AF7-48BF-B1D1-D66EB165BC55}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>